--- a/YellowLib/YellowLib/Ansari_TimeCard.xlsx
+++ b/YellowLib/YellowLib/Ansari_TimeCard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansari_a\source\repos\Yellow Project1\YellowLib\YellowLib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansari_a\Source\Repos\Yellow Project1\YellowLib\YellowLib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="20">
   <si>
     <t>Time Sheet</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone</t>
   </si>
   <si>
     <t>Manager Details:</t>
@@ -94,6 +88,15 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Adjua Ansari</t>
+  </si>
+  <si>
+    <t>ansari_a@lynchburg.edu</t>
+  </si>
+  <si>
+    <t>(336) 337-5535</t>
   </si>
 </sst>
 </file>
@@ -261,8 +264,8 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -635,8 +638,8 @@
   </sheetPr>
   <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -665,18 +668,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>4</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -684,24 +688,24 @@
     </row>
     <row r="4" spans="2:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -723,39 +727,39 @@
     </row>
     <row r="7" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -764,19 +768,19 @@
     </row>
     <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -785,19 +789,19 @@
     </row>
     <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -806,19 +810,19 @@
     </row>
     <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -827,19 +831,19 @@
     </row>
     <row r="12" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -848,19 +852,19 @@
     </row>
     <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -869,19 +873,19 @@
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G14" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -890,19 +894,19 @@
     </row>
     <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -911,19 +915,19 @@
     </row>
     <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G16" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -932,19 +936,19 @@
     </row>
     <row r="17" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G17" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -953,19 +957,19 @@
     </row>
     <row r="18" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G18" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -974,19 +978,19 @@
     </row>
     <row r="19" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G19" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -995,19 +999,19 @@
     </row>
     <row r="20" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G20" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -1016,19 +1020,19 @@
     </row>
     <row r="21" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G21" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -1037,19 +1041,19 @@
     </row>
     <row r="22" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G22" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -1058,19 +1062,19 @@
     </row>
     <row r="23" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G23" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -1079,19 +1083,19 @@
     </row>
     <row r="24" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G24" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -1100,19 +1104,19 @@
     </row>
     <row r="25" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G25" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -1121,19 +1125,19 @@
     </row>
     <row r="26" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G26" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -1142,19 +1146,19 @@
     </row>
     <row r="27" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G27" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -1163,19 +1167,19 @@
     </row>
     <row r="28" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G28" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -1184,19 +1188,19 @@
     </row>
     <row r="29" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G29" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -1205,19 +1209,19 @@
     </row>
     <row r="30" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G30" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -1226,19 +1230,19 @@
     </row>
     <row r="31" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G31" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -1247,19 +1251,19 @@
     </row>
     <row r="32" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G32" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -1268,19 +1272,19 @@
     </row>
     <row r="33" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G33" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -1289,19 +1293,19 @@
     </row>
     <row r="34" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G34" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -1310,19 +1314,19 @@
     </row>
     <row r="35" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G35" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -1331,19 +1335,19 @@
     </row>
     <row r="36" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G36" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -1352,19 +1356,19 @@
     </row>
     <row r="37" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G37" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -1373,13 +1377,13 @@
     </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:E1 D3:E4 F1:G6 A2:A1048576 H1:XFD1048576 B8:G1048576"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:E1 D3:E4 B8:G1048576 A2:A1048576 H1:XFD1048576 G1:G6 F1 F3:F6"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Use this worksheet to track hours worked in a work week. Enter Date and Times in TimeSheet table. Total Hours, Regular Hours and Overtime Hours are automatically calculated" sqref="A1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell.  Enter Employee and Manager details in cells below" sqref="B1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Employee Name, Email and Phone in cells at right" sqref="B2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Employee Name in this cell" sqref="C2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Employee Email in this cell" sqref="D2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Employee Phone in this cell" sqref="E2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Employee Phone in this cell" sqref="F2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Manager Name in cells at right" sqref="B3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Manager Name in this cell" sqref="C3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Period Start Date in this cell" sqref="B4"/>
@@ -1399,14 +1403,17 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Time Out in this column under this heading" sqref="F7"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Hours Worked are automatically calculated in this column under this heading" sqref="G7"/>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/YellowLib/YellowLib/Ansari_TimeCard.xlsx
+++ b/YellowLib/YellowLib/Ansari_TimeCard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansari_a\Source\Repos\Yellow Project1\YellowLib\YellowLib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansari_a\Source\Repos\Yellow Project\YellowLib\YellowLib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -638,8 +638,8 @@
   </sheetPr>
   <dimension ref="B1:H37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -673,10 +673,9 @@
       <c r="D2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -1383,7 +1382,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Employee Name, Email and Phone in cells at right" sqref="B2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Employee Name in this cell" sqref="C2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Employee Email in this cell" sqref="D2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Employee Phone in this cell" sqref="F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Employee Phone in this cell" sqref="E2"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Manager Name in cells at right" sqref="B3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Manager Name in this cell" sqref="C3"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Period Start Date in this cell" sqref="B4"/>

--- a/YellowLib/YellowLib/Ansari_TimeCard.xlsx
+++ b/YellowLib/YellowLib/Ansari_TimeCard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansari_a\Source\Repos\Yellow Project\YellowLib\YellowLib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansari_a\Source\Repos\Yellow Project1\YellowLib\YellowLib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="20">
   <si>
     <t>Time Sheet</t>
   </si>
@@ -348,8 +348,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G12" totalsRowShown="0">
-  <autoFilter ref="B7:G12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G14" totalsRowShown="0">
+  <autoFilter ref="B7:G14"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date(s)" dataCellStyle="Date"/>
     <tableColumn id="2" name="Time In" dataCellStyle="Time"/>
@@ -636,10 +636,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:H37"/>
+  <dimension ref="B1:H39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -713,11 +713,11 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>0</v>
+        <v>13.500000000000004</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
-        <v>0</v>
+        <v>13.500000000000004</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
@@ -745,11 +745,11 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
+      <c r="B8" s="4">
+        <v>43508</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.79166666666666663</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>12</v>
@@ -757,20 +757,20 @@
       <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>14</v>
+      <c r="F8" s="6">
+        <v>0.875</v>
       </c>
       <c r="G8" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>11</v>
+      <c r="B9" s="4">
+        <v>43513</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.60416666666666663</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>12</v>
@@ -778,20 +778,20 @@
       <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>14</v>
+      <c r="F9" s="6">
+        <v>0.66666666666666663</v>
       </c>
       <c r="G9" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>11</v>
+      <c r="B10" s="4">
+        <v>43515</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.75</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>12</v>
@@ -799,20 +799,20 @@
       <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>14</v>
+      <c r="F10" s="6">
+        <v>0.83333333333333337</v>
       </c>
       <c r="G10" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>11</v>
+      <c r="B11" s="4">
+        <v>43524</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.75</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>12</v>
@@ -820,20 +820,20 @@
       <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>14</v>
+      <c r="F11" s="6">
+        <v>0.83333333333333337</v>
       </c>
       <c r="G11" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
+      <c r="B12" s="4">
+        <v>43527</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.58333333333333337</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>12</v>
@@ -841,51 +841,37 @@
       <c r="E12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>14</v>
+      <c r="F12" s="6">
+        <v>0.70833333333333337</v>
       </c>
       <c r="G12" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>14</v>
+      <c r="B13" s="4">
+        <v>43529</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
+        <v>0.875</v>
       </c>
       <c r="G13" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>14</v>
-      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
         <v>0</v>
@@ -1374,9 +1360,51 @@
         <v>0</v>
       </c>
     </row>
+    <row r="38" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="5">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="5">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="25">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:E1 D3:E4 B8:G1048576 A2:A1048576 H1:XFD1048576 G1:G6 F1 F3:F6"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="D3:E4 A2:A1048576 H1:XFD1048576 G1:G6 C1:F1 F3:F6 B8:G1048576"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Use this worksheet to track hours worked in a work week. Enter Date and Times in TimeSheet table. Total Hours, Regular Hours and Overtime Hours are automatically calculated" sqref="A1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell.  Enter Employee and Manager details in cells below" sqref="B1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Employee Name, Email and Phone in cells at right" sqref="B2"/>

--- a/YellowLib/YellowLib/Ansari_TimeCard.xlsx
+++ b/YellowLib/YellowLib/Ansari_TimeCard.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="20">
   <si>
     <t>Time Sheet</t>
   </si>
@@ -638,8 +638,8 @@
   </sheetPr>
   <dimension ref="B1:H39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -713,11 +713,11 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>13.500000000000004</v>
+        <v>15.500000000000004</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
-        <v>13.500000000000004</v>
+        <v>15.500000000000004</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
@@ -867,22 +867,28 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="4">
+        <v>43543</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.75</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G14" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>11</v>
+      <c r="B15" s="4">
+        <v>43541</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.58333333333333337</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>12</v>
@@ -890,8 +896,8 @@
       <c r="E15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>14</v>
+      <c r="F15" s="6">
+        <v>0.625</v>
       </c>
       <c r="G15" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>

--- a/YellowLib/YellowLib/Ansari_TimeCard.xlsx
+++ b/YellowLib/YellowLib/Ansari_TimeCard.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="20">
   <si>
     <t>Time Sheet</t>
   </si>
@@ -282,7 +282,10 @@
     <cellStyle name="Time" xfId="8"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </dxf>
     <dxf>
       <border>
         <top style="thin">
@@ -330,10 +333,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Time Sheet" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Time Sheet" pivot="0" count="4">
-      <tableStyleElement type="wholeTable" dxfId="3"/>
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -348,15 +351,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G14" totalsRowShown="0">
-  <autoFilter ref="B7:G14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TimeSheet" displayName="TimeSheet" ref="B7:G39" totalsRowShown="0">
+  <autoFilter ref="B7:G39"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Date(s)" dataCellStyle="Date"/>
     <tableColumn id="2" name="Time In" dataCellStyle="Time"/>
     <tableColumn id="3" name="Lunch Start" dataCellStyle="Time"/>
     <tableColumn id="4" name="Lunch End" dataCellStyle="Time"/>
     <tableColumn id="5" name="Time Out" dataCellStyle="Time"/>
-    <tableColumn id="6" name="Hours Worked" dataCellStyle="Hours">
+    <tableColumn id="6" name="Hours Worked" dataDxfId="0" dataCellStyle="Hours">
       <calculatedColumnFormula>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -638,8 +641,8 @@
   </sheetPr>
   <dimension ref="B1:H39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -713,11 +716,11 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>15.500000000000004</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
-        <v>15.500000000000004</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
@@ -868,69 +871,69 @@
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
-        <v>43543</v>
+        <v>43541</v>
       </c>
       <c r="C14" s="6">
-        <v>0.75</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G14" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>2.0000000000000009</v>
+        <v>1.9999999999999982</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
-        <v>43541</v>
+        <v>43543</v>
       </c>
       <c r="C15" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G15" s="5">
+        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
+        <v>2.0000000000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>43548</v>
+      </c>
+      <c r="C16" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0.625</v>
-      </c>
-      <c r="G15" s="5">
-        <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="D16" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>14</v>
+      <c r="F16" s="6">
+        <v>0.66666666666666663</v>
       </c>
       <c r="G16" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>1.9999999999999982</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>11</v>
+      <c r="B17" s="4">
+        <v>43550</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.79166666666666663</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>12</v>
@@ -938,20 +941,20 @@
       <c r="E17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>14</v>
+      <c r="F17" s="6">
+        <v>0.875</v>
       </c>
       <c r="G17" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>11</v>
+      <c r="B18" s="4">
+        <v>43552</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.25</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>12</v>
@@ -959,20 +962,20 @@
       <c r="E18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>14</v>
+      <c r="F18" s="6">
+        <v>0.35416666666666669</v>
       </c>
       <c r="G18" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>2.5000000000000004</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>11</v>
+      <c r="B19" s="4">
+        <v>43558</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.79166666666666663</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>12</v>
@@ -980,20 +983,20 @@
       <c r="E19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>14</v>
+      <c r="F19" s="6">
+        <v>0.875</v>
       </c>
       <c r="G19" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>11</v>
+      <c r="B20" s="4">
+        <v>43557</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.42708333333333331</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>12</v>
@@ -1001,12 +1004,12 @@
       <c r="E20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>14</v>
+      <c r="F20" s="6">
+        <v>0.46875</v>
       </c>
       <c r="G20" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>1.0000000000000004</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/YellowLib/YellowLib/Ansari_TimeCard.xlsx
+++ b/YellowLib/YellowLib/Ansari_TimeCard.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="20">
   <si>
     <t>Time Sheet</t>
   </si>
@@ -642,7 +642,7 @@
   <dimension ref="B1:H39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -716,11 +716,11 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>27</v>
+        <v>28.25</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
-        <v>27</v>
+        <v>28.25</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
@@ -1013,11 +1013,11 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>11</v>
+      <c r="B21" s="4">
+        <v>43559</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.75</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>12</v>
@@ -1025,12 +1025,12 @@
       <c r="E21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>14</v>
+      <c r="F21" s="6">
+        <v>0.80208333333333337</v>
       </c>
       <c r="G21" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>1.2500000000000009</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/YellowLib/YellowLib/Ansari_TimeCard.xlsx
+++ b/YellowLib/YellowLib/Ansari_TimeCard.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="20">
   <si>
     <t>Time Sheet</t>
   </si>
@@ -642,7 +642,7 @@
   <dimension ref="B1:H39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -716,11 +716,11 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>28.25</v>
+        <v>30.25</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
-        <v>28.25</v>
+        <v>30.25</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
@@ -1034,11 +1034,11 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>11</v>
+      <c r="B22" s="4">
+        <v>43564</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.2638888888888889</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>12</v>
@@ -1046,12 +1046,12 @@
       <c r="E22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>14</v>
+      <c r="F22" s="6">
+        <v>0.34722222222222227</v>
       </c>
       <c r="G22" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/YellowLib/YellowLib/Ansari_TimeCard.xlsx
+++ b/YellowLib/YellowLib/Ansari_TimeCard.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="20">
   <si>
     <t>Time Sheet</t>
   </si>
@@ -641,8 +641,8 @@
   </sheetPr>
   <dimension ref="B1:H39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -716,11 +716,11 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>30.25</v>
+        <v>31.25</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
-        <v>30.25</v>
+        <v>31.25</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
@@ -1038,7 +1038,7 @@
         <v>43564</v>
       </c>
       <c r="C22" s="6">
-        <v>0.2638888888888889</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>12</v>
@@ -1047,7 +1047,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="6">
-        <v>0.34722222222222227</v>
+        <v>0.84722222222222221</v>
       </c>
       <c r="G22" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
@@ -1055,11 +1055,11 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>11</v>
+      <c r="B23" s="4">
+        <v>43566</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>12</v>
@@ -1067,12 +1067,12 @@
       <c r="E23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>14</v>
+      <c r="F23" s="6">
+        <v>0.45833333333333331</v>
       </c>
       <c r="G23" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>0.99999999999999911</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/YellowLib/YellowLib/Ansari_TimeCard.xlsx
+++ b/YellowLib/YellowLib/Ansari_TimeCard.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="20">
   <si>
     <t>Time Sheet</t>
   </si>
@@ -641,8 +641,8 @@
   </sheetPr>
   <dimension ref="B1:H39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -716,11 +716,11 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>31.25</v>
+        <v>35.75</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
-        <v>31.25</v>
+        <v>35.75</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
@@ -1076,11 +1076,11 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>11</v>
+      <c r="B24" s="4">
+        <v>43569</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.58333333333333337</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>12</v>
@@ -1088,20 +1088,20 @@
       <c r="E24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>14</v>
+      <c r="F24" s="6">
+        <v>0.6875</v>
       </c>
       <c r="G24" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>2.4999999999999991</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>11</v>
+      <c r="B25" s="4">
+        <v>43571</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.75</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>12</v>
@@ -1109,12 +1109,12 @@
       <c r="E25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>14</v>
+      <c r="F25" s="6">
+        <v>0.83333333333333337</v>
       </c>
       <c r="G25" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/YellowLib/YellowLib/Ansari_TimeCard.xlsx
+++ b/YellowLib/YellowLib/Ansari_TimeCard.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="20">
   <si>
     <t>Time Sheet</t>
   </si>
@@ -641,8 +641,8 @@
   </sheetPr>
   <dimension ref="B1:H39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -716,15 +716,15 @@
       </c>
       <c r="C6" s="3">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>35.75</v>
+        <v>40.75</v>
       </c>
       <c r="D6" s="3">
         <f>IFERROR(IF(C6&lt;=WorkweekHours,C6,WorkweekHours),"")</f>
-        <v>35.75</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3">
         <f>IFERROR(C6-D6, "")</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -1118,11 +1118,11 @@
       </c>
     </row>
     <row r="26" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>11</v>
+      <c r="B26" s="4">
+        <v>43573</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.41666666666666669</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>12</v>
@@ -1130,20 +1130,20 @@
       <c r="E26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="6" t="s">
-        <v>14</v>
+      <c r="F26" s="6">
+        <v>0.45833333333333331</v>
       </c>
       <c r="G26" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>0.99999999999999911</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>11</v>
+      <c r="B27" s="4">
+        <v>43576</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.58333333333333337</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>12</v>
@@ -1151,20 +1151,20 @@
       <c r="E27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>14</v>
+      <c r="F27" s="6">
+        <v>0.66666666666666663</v>
       </c>
       <c r="G27" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>1.9999999999999982</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>11</v>
+      <c r="B28" s="4">
+        <v>43578</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.75</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>12</v>
@@ -1172,12 +1172,12 @@
       <c r="E28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>14</v>
+      <c r="F28" s="6">
+        <v>0.83333333333333337</v>
       </c>
       <c r="G28" s="5">
         <f>IFERROR(IF(COUNT(TimeSheet[[#This Row],[Time In]:[Time Out]])=4,(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Lunch End]]+TimeSheet[[#This Row],[Lunch Start]]-TimeSheet[[#This Row],[Time In]],IF(AND(LEN(TimeSheet[[#This Row],[Time In]])&lt;&gt;0,LEN(TimeSheet[[#This Row],[Time Out]])&lt;&gt;0),(IF(TimeSheet[[#This Row],[Time Out]]&lt;TimeSheet[[#This Row],[Time In]],1,0)+TimeSheet[[#This Row],[Time Out]])-TimeSheet[[#This Row],[Time In]],0))*24,0)</f>
-        <v>0</v>
+        <v>2.0000000000000009</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
